--- a/mbs-perturbation/mega/elm/ELM_lin_results.xlsx
+++ b/mbs-perturbation/mega/elm/ELM_lin_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8931623931623932</v>
+        <v>0.892018779342723</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6268656716417911</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9054439484126983</v>
+        <v>0.9015731874145008</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8931623931623932</v>
+        <v>0.892018779342723</v>
       </c>
       <c r="C3" t="n">
         <v>0.6046511627906976</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6753246753246753</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8441495190551566</v>
+        <v>0.9259917920656634</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8369098712446352</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8721406786122761</v>
+        <v>0.8463855421686748</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.871244635193133</v>
+        <v>0.8632075471698113</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5434782608695652</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="D5" t="n">
-        <v>0.625</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8852592420367358</v>
+        <v>0.9221455627705627</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8240343347639485</v>
+        <v>0.8632075471698113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3695652173913043</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4533333333333333</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7810392931876307</v>
+        <v>0.8644273284838113</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8637027255053006</v>
+        <v>0.8681282664540703</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4855061413250675</v>
+        <v>0.4950469577772347</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5897410996963235</v>
+        <v>0.6021706899857896</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8576065362608996</v>
+        <v>0.8921046825806427</v>
       </c>
     </row>
   </sheetData>
